--- a/asset/data/origin_dataset_stemming.xlsx
+++ b/asset/data/origin_dataset_stemming.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NurulAkhni\NurulAkhni\SKRIPSI\skripsi-editable\program\wsd-app\asset\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F4F8BF-6A71-401C-8342-391B358F29BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="771">
   <si>
     <t>No</t>
   </si>
@@ -35,6 +28,12 @@
     <t>Actual Sense</t>
   </si>
   <si>
+    <t>Predicted Sense</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
     <t>aku membaca buku tentang sejarah di perpustakaan</t>
   </si>
   <si>
@@ -2066,17 +2065,275 @@
     <t>(ukuran) baik buruk suatu benda; kadar; taraf atau derajat (kepandaian, kecerdasan, dan sebagainya); kualitas</t>
   </si>
   <si>
-    <t>Jumlah Data</t>
-  </si>
-  <si>
-    <t>Akurasi</t>
+    <t>hampir tidak berantara; dekat sekali (tidak renggang)</t>
+  </si>
+  <si>
+    <t>kata untuk menyatakan salah satu waktu terjadinya peristiwa yang merupakan bagian dari rangkaian peristiwa yang pernah dan masih akan terus terjadi</t>
+  </si>
+  <si>
+    <t>sebutan kehormatan, kebangsawanan, atau kesarjanaan yang biasanya ditambahkan pada nama orang seperti raden, tengku, doktor, sarjana ekonomi</t>
+  </si>
+  <si>
+    <t>perdu, tinggi 2 m, batangnya mudah patah, daunnya besar berwarna hijau kebiru-biruan, buahnya berbiji polong, bijinya sebesar kacang tanah, ketika tua berwarna hitam, dapat digunakan sebagai bahan minyak pelumas; dulang</t>
+  </si>
+  <si>
+    <t>damai</t>
+  </si>
+  <si>
+    <t>karangan prosa yang melukiskan perbuatan pelakunya menurut watak dan isi jiwa masing-masing</t>
+  </si>
+  <si>
+    <t>jawatan yang menyelenggarakan kirim-mengirim barang, surat, uang, dan sebagainya</t>
+  </si>
+  <si>
+    <t>bagian besar dalam suatu drama atau lakon (terdiri atas beberapa adegan)</t>
+  </si>
+  <si>
+    <t>pohon yang tingginya mencapai 12 m, daun lonjong, bunga putih hingga merah muda, buah bulat berdaging tebal berwarna merah, kuning, atau hijau, rasa manis keasam-asaman</t>
+  </si>
+  <si>
+    <t>wajib hadir dalam suatu upacara resmi (bersifat kemiliteran) untuk diketahui hadir tidaknya atau untuk mendengar amanat</t>
+  </si>
+  <si>
+    <t>bakat atau pembawaan sejak lahir</t>
+  </si>
+  <si>
+    <t>keadaan udara pada suatu tempat; iklim</t>
+  </si>
+  <si>
+    <t>sesuatu yang dianggap elok (cantik) seperti bunga</t>
+  </si>
+  <si>
+    <t>pokok; utama</t>
+  </si>
+  <si>
+    <t>terlempar kembali; berbalik arah</t>
+  </si>
+  <si>
+    <t>pernah</t>
+  </si>
+  <si>
+    <t>tidak aman karena banyak gangguan keamanan (seperti pencurian, perampokan, pembegalan)</t>
+  </si>
+  <si>
+    <t>kepala kampung (di bawah kepala desa)</t>
+  </si>
+  <si>
+    <t>nama yang dipakai untuk beberapa jenis tumbuhan yang tidak berkerabat satu sama lain, seperti -- bangkai, -- ketongkeng, -- manila</t>
+  </si>
+  <si>
+    <t>ceri</t>
+  </si>
+  <si>
+    <t>bunga (dipakai juga untuk menyebut berbagai macam bunga)</t>
+  </si>
+  <si>
+    <t>menggerakkan supaya berputar (berpusing); memusing</t>
+  </si>
+  <si>
+    <t>tawar (tentang rasa makanan dan sebagainya)</t>
+  </si>
+  <si>
+    <t>lapangan (dalam arti lingkungan pekerjaan, pengetahuan, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>patah dua sehingga bidangnya menjadi seperdua (tentang kertas, kain, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>jurusan</t>
+  </si>
+  <si>
+    <t>apa yang dialami oleh badan</t>
+  </si>
+  <si>
+    <t>rancangan atau buram surat dan sebagainya</t>
+  </si>
+  <si>
+    <t>peruntungan; nasib baik</t>
+  </si>
+  <si>
+    <t>tidak teguh imannya (gampang terbujuk atau gampang diajak berzina dan sebagainya)</t>
+  </si>
+  <si>
+    <t>bagian terbawah (tentang kuali, botol, dan sebagainya) di sebelah dalam atau luar</t>
+  </si>
+  <si>
+    <t>benda putih yang lunak terdapat di dalam rongga tengkorak yang menjadi pusat saraf; benak</t>
+  </si>
+  <si>
+    <t>bagian yang keras pada pertemuan dua ruas (buluh, tebu)</t>
+  </si>
+  <si>
+    <t>tuturan yang membentangkan bagaimana terjadinya suatu hal (peristiwa, kejadian, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>tanda</t>
+  </si>
+  <si>
+    <t>orang yang terkemuka dan kenamaan (dalam bidang politik, kebudayaan, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>gambaran mental dari objek, proses, atau apa pun yang ada di luar bahasa, yang digunakan oleh akal budi untuk memahami hal-hal lain</t>
+  </si>
+  <si>
+    <t>irama dan lagu (dalam nyanyian, musik, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>memang begitu (tentang adat, tabiat, kelakuan, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>tanggapan indra terhadap rangsangan saraf seperti manis, pahit, masam terhadap indra pengecap, atau panas, dingin, nyeri terhadap indra perasa)</t>
+  </si>
+  <si>
+    <t>mahaperkasa</t>
+  </si>
+  <si>
+    <t>sudut atau sisi yang tajam (dari suatu benda)</t>
+  </si>
+  <si>
+    <t>pagi sekali</t>
+  </si>
+  <si>
+    <t>merasa tidak enak hati</t>
+  </si>
+  <si>
+    <t>pandangan air muka yang memperlihatkan perasaan seseorang</t>
+  </si>
+  <si>
+    <t>ingat kembali (dari pingsan dan sebagainya); siuman</t>
+  </si>
+  <si>
+    <t>kebun yang ditanami dengan bunga-bunga dan sebagainya (tempat bersenang-senang)</t>
+  </si>
+  <si>
+    <t>lakon yang diwujudkan atau dipertunjukkan dalam film (sandiwara, wayang, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>rupa (wujud dan keadaan); macam atau jenis</t>
+  </si>
+  <si>
+    <t>luapan perasaan yang berkembang dan surut dalam waktu singkat</t>
+  </si>
+  <si>
+    <t>sudah disisip(kan)</t>
+  </si>
+  <si>
+    <t>dada; bagian depan</t>
+  </si>
+  <si>
+    <t>sistem; susunan (pemerintahan, perserikatan, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>pendapat (pertimbangan) mengenai baik atau buruk, salah atau benar</t>
+  </si>
+  <si>
+    <t>mampu; sanggup; bisa</t>
+  </si>
+  <si>
+    <t>(tinggi rendah) nada (suara, bunyi musik, dan sebagainya); tala</t>
+  </si>
+  <si>
+    <t>nilai barang yang ditentukan atau dirupakan dengan uang</t>
+  </si>
+  <si>
+    <t>alat untuk mengikatkan kulit kayu, terbuat dari kayu tua berwarna hitam</t>
+  </si>
+  <si>
+    <t>guna (arti, kepentingan, kabar, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>bebas dari bahaya</t>
+  </si>
+  <si>
+    <t>struktur fundamental dari pemrograman berbasis objek, terdiri atas semua metode (fungsi dan prosedur) dan data yang diperlukan untuk merepresentasikan beberapa objek</t>
+  </si>
+  <si>
+    <t>proses psikologi yang terjadi pada diri seseorang karena secara tidak sadar dia membayangkan dirinya seperti orang lain yang dikaguminya, lalu dia meniru tingkah laku orang yang dikaguminya itu</t>
+  </si>
+  <si>
+    <t>warna dasar yang serupa dengan warna darah</t>
+  </si>
+  <si>
+    <t>boleh dipakai (tentang uang, karcis, dan sebagainya); sah</t>
+  </si>
+  <si>
+    <t>potongan kertas yang dipakai sebagai contoh dalam membuat baju dan sebagainya; model</t>
+  </si>
+  <si>
+    <t>pelaksanaan pekerjaan (tentang dokter, pengacara, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>benda budaya yang dikembangkan manusia dalam usahanya memenuhi segala macam kebutuhan hidupnya, sebagai penyambung keterbatasan organnya</t>
+  </si>
+  <si>
+    <t>bantuan dari anggota keluarga kepada kedua pengantin sebagai bekal bagi mereka dalam memasuki rumah tangga baru</t>
+  </si>
+  <si>
+    <t>yang sebelah atas (tentang tingkatan, pangkat, derajat, mutu, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>banding; imbangan</t>
+  </si>
+  <si>
+    <t>tempat pegawai (pengurus perkumpulan dan sebagainya) tinggal untuk melakukan pekerjaan atau jabatannya</t>
+  </si>
+  <si>
+    <t>timbul (hidup) dan bertambah besar atau sempurna (tentang benih tanaman; bagian tubuh seperti rambut, gigi, tentang penyakit kulit seperti bisul, jerawat)</t>
+  </si>
+  <si>
+    <t>bagian tubuh yang menjadi pusat peredaran darah (letaknya di dalam rongga dada sebelah atas)</t>
+  </si>
+  <si>
+    <t>sistem penanggalan Jawa Kuno yang mencakupi waktu 15 hari (dalam satu bulan ada dua paksa, yaitu suklapaksa ‘paruh terang’ dan kresnapaksa ‘paruh gelap’)</t>
+  </si>
+  <si>
+    <t>manfaat; faedah; maslahat</t>
+  </si>
+  <si>
+    <t>denda berupa uang duka yang harus diberikan oleh seorang laki-laki kepada perempuan bersuami yang telah melakukan hubungan seksual dengannya dan hubungan itu mengakibatkan kematian suami perempuan itu ataupun mengakibatkan perceraian (di Palembang)</t>
+  </si>
+  <si>
+    <t>pekerjaan, gerakan, tindakan, atau aksi yang dilakukan secara fisik dan terpimpin dengan waktu yang singkat, berfokus pada satu tujuan tertentu untuk memperoleh efek penghancuran, pelumpuhan, pencegahan, pembinasaan, atau peniadaan</t>
+  </si>
+  <si>
+    <t>bahan yang digunakan dalam pemasukan dan penyimpanan data di komputer, atau dalam perekaman hasil komputer</t>
+  </si>
+  <si>
+    <t>penggunaan; penerapan</t>
+  </si>
+  <si>
+    <t>kesan yang timbul pada pikiran penonton, pendengar, pembaca, dan sebagainya (sesudah mendengar atau melihat sesuatu)</t>
+  </si>
+  <si>
+    <t>hanya tampaknya ada, tetapi nyatanya tidak ada; hanya ada dalam angan-angan; khayalan</t>
+  </si>
+  <si>
+    <t>kumpulan zat, bilangan, atau kuantitas lain pada kumpulan yang sama yang disusun secara beraturan</t>
+  </si>
+  <si>
+    <t>lapisan udara yang menyelubungi bumi sampai ketinggian 300 km (terutama terdiri atas campuran berbagai gas, yaitu nitrogen, oksigen, argon, dan sejumlah kecil gas lain)</t>
+  </si>
+  <si>
+    <t>bagian yang paling atas (tentang gunung, menara, pohon, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>susunan (model, tata letak) suatu bangunan (jembatan, rumah, dan sebagainya)</t>
+  </si>
+  <si>
+    <t>menangkap (menahan) musuh dan sebagainya</t>
+  </si>
+  <si>
+    <t>sudah tua dan sudah sampai waktunya untuk dipetik, dimakan, dan sebagainya (tentang buah-buahan); masak</t>
+  </si>
+  <si>
+    <t>sejalan (sama arah dan jaraknya); paralel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2092,12 +2349,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2107,7 +2358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2130,38 +2381,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2169,14 +2396,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2223,7 +2442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2255,27 +2474,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2307,24 +2508,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2500,16 +2683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2522,4258 +2703,6014 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+      <c r="E3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+      <c r="E4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+      <c r="E5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+      <c r="E7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+      <c r="E8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="E9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="E11" t="s">
+        <v>683</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+      <c r="E12" t="s">
+        <v>472</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+      <c r="E13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="E14" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+      <c r="E15" t="s">
+        <v>475</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+      <c r="E17" t="s">
+        <v>538</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+      <c r="E18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+      <c r="E19" t="s">
+        <v>684</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+      <c r="E20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>481</v>
+      </c>
+      <c r="E21" t="s">
+        <v>685</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+      <c r="E22" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+      <c r="E23" t="s">
+        <v>686</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+      <c r="E24" t="s">
+        <v>687</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="E25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="E26" t="s">
+        <v>486</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D27" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+      <c r="E27" t="s">
+        <v>487</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D28" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+      <c r="E28" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D29" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+      <c r="E29" t="s">
+        <v>688</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D30" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E31" t="s">
+        <v>491</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+      <c r="E32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D33" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+      <c r="E33" t="s">
+        <v>493</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D34" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+      <c r="E34" t="s">
+        <v>494</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D35" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>495</v>
+      </c>
+      <c r="E35" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D36" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+      <c r="E36" t="s">
+        <v>496</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+      <c r="E37" t="s">
+        <v>497</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D38" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="E38" t="s">
+        <v>498</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D39" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+      <c r="E39" t="s">
+        <v>499</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+      <c r="E40" t="s">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>501</v>
+      </c>
+      <c r="E41" t="s">
+        <v>501</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+      <c r="E42" t="s">
+        <v>502</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D43" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+      <c r="E43" t="s">
+        <v>503</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D44" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+      <c r="E44" t="s">
+        <v>504</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D45" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+      <c r="E45" t="s">
+        <v>505</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D46" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+      <c r="E46" t="s">
+        <v>689</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D47" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>507</v>
+      </c>
+      <c r="E47" t="s">
+        <v>507</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D48" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+      <c r="E48" t="s">
+        <v>508</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D49" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>509</v>
+      </c>
+      <c r="E49" t="s">
+        <v>509</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D50" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+      <c r="E50" t="s">
+        <v>690</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+      <c r="E51" t="s">
+        <v>511</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+      <c r="E52" t="s">
+        <v>512</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D53" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="E53" t="s">
+        <v>691</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D54" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+      <c r="E54" t="s">
+        <v>514</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D55" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+      <c r="E55" t="s">
+        <v>692</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D56" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+      <c r="E56" t="s">
+        <v>516</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D57" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+      <c r="E57" t="s">
+        <v>517</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D58" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+      <c r="E58" t="s">
+        <v>518</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D59" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+      <c r="E59" t="s">
+        <v>519</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D60" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+      <c r="E60" t="s">
+        <v>520</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D61" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+      <c r="E61" t="s">
+        <v>521</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+      <c r="E62" t="s">
+        <v>522</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D63" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+      <c r="E63" t="s">
+        <v>523</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D64" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>524</v>
+      </c>
+      <c r="E64" t="s">
+        <v>525</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D65" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+      <c r="E65" t="s">
+        <v>525</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D66" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+      <c r="E66" t="s">
+        <v>527</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D67" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+      <c r="E67" t="s">
+        <v>527</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>528</v>
+      </c>
+      <c r="E68" t="s">
+        <v>528</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D69" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>529</v>
+      </c>
+      <c r="E69" t="s">
+        <v>529</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D70" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>530</v>
+      </c>
+      <c r="E70" t="s">
+        <v>530</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D71" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+      <c r="E71" t="s">
+        <v>531</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D72" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+      <c r="E72" t="s">
+        <v>693</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D73" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="E73" t="s">
+        <v>691</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D74" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+      <c r="E74" t="s">
+        <v>692</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D75" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="E75" t="s">
+        <v>468</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+      <c r="E76" t="s">
+        <v>468</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D77" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+      <c r="E77" t="s">
+        <v>694</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D78" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+      <c r="E78" t="s">
+        <v>534</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D79" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+      <c r="E79" t="s">
+        <v>535</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+      <c r="E80" t="s">
+        <v>536</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D81" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+      <c r="E81" t="s">
+        <v>472</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D82" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="E82" t="s">
+        <v>695</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D83" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+      <c r="E83" t="s">
+        <v>520</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D84" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+      <c r="E84" t="s">
+        <v>538</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+      <c r="E85" t="s">
+        <v>476</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D86" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>539</v>
+      </c>
+      <c r="E86" t="s">
+        <v>539</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D87" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+      <c r="E87" t="s">
+        <v>509</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D88" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+      <c r="E88" t="s">
+        <v>690</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="E89" t="s">
+        <v>691</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D90" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="E90" t="s">
+        <v>469</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D91" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+      <c r="E91" t="s">
+        <v>520</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D92" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+      <c r="E92" t="s">
+        <v>541</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D93" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="E93" t="s">
+        <v>474</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D94" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>521</v>
+      </c>
+      <c r="E94" t="s">
+        <v>521</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D95" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>520</v>
+      </c>
+      <c r="E95" t="s">
+        <v>520</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D96" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+      <c r="E96" t="s">
+        <v>516</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D97" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+      <c r="E97" t="s">
+        <v>517</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D98" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>542</v>
+      </c>
+      <c r="E98" t="s">
+        <v>542</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D99" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>543</v>
+      </c>
+      <c r="E99" t="s">
+        <v>543</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E100" t="s">
+        <v>491</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D101" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="E101" t="s">
+        <v>471</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D102" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+      <c r="E102" t="s">
+        <v>544</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+      <c r="E103" t="s">
+        <v>545</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+      <c r="E104" t="s">
+        <v>696</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+      <c r="E105" t="s">
+        <v>516</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E106" t="s">
+        <v>491</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D107" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+      <c r="E107" t="s">
+        <v>692</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="E108" t="s">
+        <v>514</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D109" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+      <c r="E109" t="s">
+        <v>536</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>467</v>
+      </c>
+      <c r="E110" t="s">
+        <v>697</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D111" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="E111" t="s">
+        <v>469</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+      <c r="E112" t="s">
+        <v>478</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+      <c r="E113" t="s">
+        <v>547</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+      <c r="E114" t="s">
+        <v>698</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+      <c r="E115" t="s">
+        <v>548</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D116" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+      <c r="E116" t="s">
+        <v>504</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D117" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+      <c r="E117" t="s">
+        <v>549</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D118" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>550</v>
+      </c>
+      <c r="E118" t="s">
+        <v>550</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D119" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+      <c r="E119" t="s">
+        <v>551</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D120" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+      <c r="E120" t="s">
+        <v>699</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D121" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+      <c r="E121" t="s">
+        <v>552</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+      <c r="E122" t="s">
+        <v>518</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D123" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>553</v>
+      </c>
+      <c r="E123" t="s">
+        <v>553</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D124" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+      <c r="E124" t="s">
+        <v>518</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D125" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>554</v>
+      </c>
+      <c r="E125" t="s">
+        <v>554</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D126" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E126" t="s">
+        <v>491</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D127" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+      <c r="E127" t="s">
+        <v>699</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D128" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+      <c r="E128" t="s">
+        <v>472</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+      <c r="E129" t="s">
+        <v>683</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D130" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>513</v>
+      </c>
+      <c r="E130" t="s">
+        <v>700</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="E131" t="s">
+        <v>695</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D132" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>522</v>
+      </c>
+      <c r="E132" t="s">
+        <v>522</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D133" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+      <c r="E133" t="s">
+        <v>523</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D134" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>491</v>
+      </c>
+      <c r="E134" t="s">
+        <v>491</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D135" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+      <c r="E135" t="s">
+        <v>491</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D136" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+      <c r="E136" t="s">
+        <v>701</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D137" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E137" t="s">
+        <v>462</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D138" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+      <c r="E138" t="s">
+        <v>511</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D139" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>555</v>
+      </c>
+      <c r="E139" t="s">
+        <v>555</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D140" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+      <c r="E140" t="s">
+        <v>556</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>557</v>
+      </c>
+      <c r="E141" t="s">
+        <v>557</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>558</v>
+      </c>
+      <c r="E142" t="s">
+        <v>702</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>559</v>
+      </c>
+      <c r="E143" t="s">
+        <v>559</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>560</v>
+      </c>
+      <c r="E144" t="s">
+        <v>559</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D145" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+      <c r="E145" t="s">
+        <v>562</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D146" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>562</v>
+      </c>
+      <c r="E146" t="s">
+        <v>562</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D147" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+      <c r="E147" t="s">
+        <v>563</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>564</v>
+      </c>
+      <c r="E148" t="s">
+        <v>564</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D149" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+      <c r="E149" t="s">
+        <v>565</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+      <c r="E150" t="s">
+        <v>703</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D151" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>566</v>
+      </c>
+      <c r="E151" t="s">
+        <v>704</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D152" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>567</v>
+      </c>
+      <c r="E152" t="s">
+        <v>704</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D153" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+      <c r="E153" t="s">
+        <v>705</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D154" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+      <c r="E154" t="s">
+        <v>569</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D155" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+      <c r="E155" t="s">
+        <v>571</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D156" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>571</v>
+      </c>
+      <c r="E156" t="s">
+        <v>571</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D157" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+      <c r="E157" t="s">
+        <v>572</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D158" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+      <c r="E158" t="s">
+        <v>573</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D159" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>574</v>
+      </c>
+      <c r="E159" t="s">
+        <v>574</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D160" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>575</v>
+      </c>
+      <c r="E160" t="s">
+        <v>706</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D161" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+      <c r="E161" t="s">
+        <v>576</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D162" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+      <c r="E162" t="s">
+        <v>707</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D163" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>578</v>
+      </c>
+      <c r="E163" t="s">
+        <v>644</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D164" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>579</v>
+      </c>
+      <c r="E164" t="s">
+        <v>579</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D165" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+      <c r="E165" t="s">
+        <v>708</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D166" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="E166" t="s">
+        <v>709</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D167" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+      <c r="E167" t="s">
+        <v>582</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D168" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+      <c r="E168" t="s">
+        <v>583</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D169" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+      <c r="E169" t="s">
+        <v>603</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D170" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+      <c r="E170" t="s">
+        <v>710</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D171" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+      <c r="E171" t="s">
+        <v>586</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D172" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+        <v>587</v>
+      </c>
+      <c r="E172" t="s">
+        <v>711</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D173" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+      <c r="E173" t="s">
+        <v>712</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D174" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+      <c r="E174" t="s">
+        <v>583</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D175" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+      <c r="E175" t="s">
+        <v>589</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D176" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+      <c r="E176" t="s">
+        <v>466</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D177" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+      <c r="E177" t="s">
+        <v>466</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D178" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+      <c r="E178" t="s">
+        <v>590</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D179" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+      <c r="E179" t="s">
+        <v>713</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D180" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+        <v>592</v>
+      </c>
+      <c r="E180" t="s">
+        <v>714</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D181" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+      <c r="E181" t="s">
+        <v>593</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D182" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E182" t="s">
+        <v>715</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D183" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+        <v>594</v>
+      </c>
+      <c r="E183" t="s">
+        <v>594</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D184" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+      <c r="E184" t="s">
+        <v>716</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="E185" t="s">
+        <v>717</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D186" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+      <c r="E186" t="s">
+        <v>716</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D187" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+      <c r="E187" t="s">
+        <v>718</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D188" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+      <c r="E188" t="s">
+        <v>719</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D189" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E189" t="s">
+        <v>462</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D190" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="E190" t="s">
+        <v>717</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D191" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+      <c r="E191" t="s">
+        <v>598</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D192" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+      <c r="E192" t="s">
+        <v>599</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D193" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+      <c r="E193" t="s">
+        <v>600</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D194" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E194" t="s">
+        <v>462</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D195" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+        <v>601</v>
+      </c>
+      <c r="E195" t="s">
+        <v>720</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D196" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E196" t="s">
+        <v>462</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D197" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+        <v>591</v>
+      </c>
+      <c r="E197" t="s">
+        <v>721</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D198" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="E198" t="s">
+        <v>722</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D199" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="E199" t="s">
+        <v>717</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D200" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+      <c r="E200" t="s">
+        <v>723</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D201" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+      <c r="E201" t="s">
+        <v>603</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D202" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+      <c r="E202" t="s">
+        <v>604</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D203" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+        <v>605</v>
+      </c>
+      <c r="E203" t="s">
+        <v>605</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D204" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+      <c r="E204" t="s">
+        <v>606</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D205" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+        <v>607</v>
+      </c>
+      <c r="E205" t="s">
+        <v>724</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D206" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+        <v>608</v>
+      </c>
+      <c r="E206" t="s">
+        <v>608</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D207" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="E207" t="s">
+        <v>709</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D208" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+        <v>609</v>
+      </c>
+      <c r="E208" t="s">
+        <v>609</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D209" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+      <c r="E209" t="s">
+        <v>725</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D210" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+      <c r="E210" t="s">
+        <v>611</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C211" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D211" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+      <c r="E211" t="s">
+        <v>726</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D212" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+        <v>586</v>
+      </c>
+      <c r="E212" t="s">
+        <v>586</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D213" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+        <v>613</v>
+      </c>
+      <c r="E213" t="s">
+        <v>727</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C214" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D214" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="E214" t="s">
+        <v>722</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C215" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D215" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+      <c r="E215" t="s">
+        <v>728</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C216" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D216" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+      <c r="E216" t="s">
+        <v>462</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C217" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D217" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+      <c r="E217" t="s">
+        <v>729</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C218" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D218" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+        <v>595</v>
+      </c>
+      <c r="E218" t="s">
+        <v>730</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C219" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D219" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+      <c r="E219" t="s">
+        <v>615</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C220" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D220" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+      <c r="E220" t="s">
+        <v>731</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D221" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+        <v>616</v>
+      </c>
+      <c r="E221" t="s">
+        <v>732</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C222" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D222" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+      <c r="E222" t="s">
+        <v>733</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D223" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+      <c r="E223" t="s">
+        <v>734</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C224" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D224" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+      <c r="E224" t="s">
+        <v>735</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C225" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D225" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+      <c r="E225" t="s">
+        <v>589</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C226" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D226" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="E226" t="s">
+        <v>736</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C227" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D227" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+      <c r="E227" t="s">
+        <v>737</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D228" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+        <v>603</v>
+      </c>
+      <c r="E228" t="s">
+        <v>584</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D229" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+      <c r="E229" t="s">
+        <v>738</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D230" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+      <c r="E230" t="s">
+        <v>739</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D231" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+      <c r="E231" t="s">
+        <v>740</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C232" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D232" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+      <c r="E232" t="s">
+        <v>741</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C233" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D233" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+      <c r="E233" t="s">
+        <v>623</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D234" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+      <c r="E234" t="s">
+        <v>742</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D235" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+        <v>625</v>
+      </c>
+      <c r="E235" t="s">
+        <v>743</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D236" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+      <c r="E236" t="s">
+        <v>589</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D237" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+        <v>626</v>
+      </c>
+      <c r="E237" t="s">
+        <v>626</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D238" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+      <c r="E238" t="s">
+        <v>627</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D239" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+      <c r="E239" t="s">
+        <v>722</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D240" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+      <c r="E240" t="s">
+        <v>744</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D241" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+      <c r="E241" t="s">
+        <v>745</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C242" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D242" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+      <c r="E242" t="s">
+        <v>630</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D243" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+      <c r="E243" t="s">
+        <v>731</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C244" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D244" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+      <c r="E244" t="s">
+        <v>631</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D245" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+      <c r="E245" t="s">
+        <v>605</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D246" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+      <c r="E246" t="s">
+        <v>746</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D247" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+        <v>634</v>
+      </c>
+      <c r="E247" t="s">
+        <v>747</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D248" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+      <c r="E248" t="s">
+        <v>631</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D249" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+        <v>635</v>
+      </c>
+      <c r="E249" t="s">
+        <v>635</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D250" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+      <c r="E250" t="s">
+        <v>748</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D251" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+        <v>637</v>
+      </c>
+      <c r="E251" t="s">
+        <v>637</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D252" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+      <c r="E252" t="s">
+        <v>638</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D253" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+      <c r="E253" t="s">
+        <v>749</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D254" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+      <c r="E254" t="s">
+        <v>640</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C255" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D255" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+        <v>622</v>
+      </c>
+      <c r="E255" t="s">
+        <v>747</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D256" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+      <c r="E256" t="s">
+        <v>641</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D257" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+      <c r="E257" t="s">
+        <v>750</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D258" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+      <c r="E258" t="s">
+        <v>643</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D259" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+      <c r="E259" t="s">
+        <v>644</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D260" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+      <c r="E260" t="s">
+        <v>428</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D261" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+      <c r="E261" t="s">
+        <v>751</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C262" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D262" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+      <c r="E262" t="s">
+        <v>646</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C263" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D263" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+      <c r="E263" t="s">
+        <v>647</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D264" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+      <c r="E264" t="s">
+        <v>752</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C265" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D265" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+      <c r="E265" t="s">
+        <v>753</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D266" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+      <c r="E266" t="s">
+        <v>754</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D267" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+      <c r="E267" t="s">
+        <v>651</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D268" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+      <c r="E268" t="s">
+        <v>652</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C269" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D269" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+      <c r="E269" t="s">
+        <v>755</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D270" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+      <c r="E270" t="s">
+        <v>756</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C271" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D271" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+      <c r="E271" t="s">
+        <v>655</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D272" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+      <c r="E272" t="s">
+        <v>757</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C273" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D273" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+      <c r="E273" t="s">
+        <v>758</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C274" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D274" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+      <c r="E274" t="s">
+        <v>759</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D275" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+      <c r="E275" t="s">
+        <v>760</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C276" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D276" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+      <c r="E276" t="s">
+        <v>660</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C277" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D277" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+      <c r="E277" t="s">
+        <v>761</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C278" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D278" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+      <c r="E278" t="s">
+        <v>762</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D279" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+      <c r="E279" t="s">
+        <v>663</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D280" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+      <c r="E280" t="s">
+        <v>664</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C281" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D281" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+      <c r="E281" t="s">
+        <v>763</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C282" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D282" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+      <c r="E282" t="s">
+        <v>667</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C283" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D283" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+      <c r="E283" t="s">
+        <v>667</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C284" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D284" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+      <c r="E284" t="s">
+        <v>764</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C285" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D285" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+      <c r="E285" t="s">
+        <v>669</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D286" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+      <c r="E286" t="s">
+        <v>670</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D287" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+      <c r="E287" t="s">
+        <v>765</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C288" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D288" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+      <c r="E288" t="s">
+        <v>672</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C289" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D289" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+      <c r="E289" t="s">
+        <v>766</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C290" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D290" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+      <c r="E290" t="s">
+        <v>597</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D291" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+      <c r="E291" t="s">
+        <v>767</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D292" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+      <c r="E292" t="s">
+        <v>675</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C293" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D293" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+      <c r="E293" t="s">
+        <v>766</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C294" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D294" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+      <c r="E294" t="s">
+        <v>676</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C295" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D295" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+      <c r="E295" t="s">
+        <v>768</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C296" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D296" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+      <c r="E296" t="s">
+        <v>769</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D297" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+      <c r="E297" t="s">
+        <v>678</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D298" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+      <c r="E298" t="s">
+        <v>770</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D299" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+        <v>681</v>
+      </c>
+      <c r="E299" t="s">
+        <v>681</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D300" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+      <c r="E300" t="s">
+        <v>682</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C301" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D301" t="s">
-        <v>632</v>
+        <v>634</v>
+      </c>
+      <c r="E301" t="s">
+        <v>747</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AE1BC5-2959-486C-B4A4-3157BB33CBDC}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>